--- a/BuySell.xlsx
+++ b/BuySell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\all_programming\R_files\Financial\Allocate_df\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CD75D-0AB6-477A-B350-65878DC5493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8BA17-EF3A-4FE7-8875-1C9045199407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="270" windowWidth="15645" windowHeight="11355" xr2:uid="{483EC758-6210-4507-9F7A-2C3C6D0F632D}"/>
+    <workbookView xWindow="8415" yWindow="0" windowWidth="15645" windowHeight="11355" xr2:uid="{483EC758-6210-4507-9F7A-2C3C6D0F632D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
   <si>
     <t>Buy</t>
   </si>
@@ -68,21 +68,39 @@
     <t>tallq_q</t>
   </si>
   <si>
-    <t>tally_b</t>
-  </si>
-  <si>
     <t>Sale</t>
   </si>
   <si>
     <t>Owned</t>
+  </si>
+  <si>
+    <t>tally_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Unadjusted gain/loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -110,11 +128,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,196 +472,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47F31CA-8A19-439E-B0F8-713EF0E53DCC}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44926</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1050</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>4.07</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
+        <f>E2*D2</f>
         <v>4273.5</v>
       </c>
       <c r="G2">
         <v>1050</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
+        <f>D2*E2</f>
         <v>4273.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.625</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F39" si="0">IF(B3="Sell",D3*E3,D3*E3)</f>
+        <v>5625</v>
+      </c>
+      <c r="G3">
+        <f>G2+D3</f>
+        <v>2050</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H39" si="1">D3*E3</f>
+        <v>5625</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5.7880000000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>5788</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G39" si="2">G3+D4</f>
+        <v>3050</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>5788</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>44953</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5.2393999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>10478.799999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>5050</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>10478.799999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>-1000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E6" s="8">
         <v>5.5124000000000004</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F6" s="1">
+        <f>IF(B6="Sell",D6*E6,D6*E6)</f>
         <v>-5512.4000000000005</v>
       </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+      <c r="H6" s="1">
+        <f>D6*E6</f>
         <v>-5512.4000000000005</v>
       </c>
-      <c r="I3">
+      <c r="I6" s="7">
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44946</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.625</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5625</v>
-      </c>
-      <c r="G4">
-        <v>1050</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5625</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44949</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.7880000000000003</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5788</v>
-      </c>
-      <c r="G5">
-        <v>2050</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5788</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44953</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.2393999999999998</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10478.799999999999</v>
-      </c>
-      <c r="G6">
-        <v>4050</v>
-      </c>
-      <c r="H6" s="2">
-        <v>10478.799999999999</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>44960</v>
       </c>
       <c r="B7" t="s">
@@ -647,27 +683,31 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>-1000</v>
       </c>
-      <c r="E7" s="2">
-        <v>6.68255</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-6682.55</v>
+      <c r="E7" s="8">
+        <f>L48</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
         <v>3050</v>
       </c>
-      <c r="H7" s="2">
-        <v>-6682.55</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
         <v>-1000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44960</v>
       </c>
       <c r="B8" t="s">
@@ -676,27 +716,31 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>-1000</v>
       </c>
-      <c r="E8" s="2">
-        <v>6.2549999999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-6255</v>
+      <c r="E8" s="8">
+        <f>E50</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-      <c r="H8" s="2">
-        <v>-6255</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
         <v>-1000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44960</v>
       </c>
       <c r="B9" t="s">
@@ -705,27 +749,31 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>-1000</v>
       </c>
-      <c r="E9" s="2">
-        <v>6.1901000000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-6190.1</v>
+      <c r="E9" s="8">
+        <f>E52</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="H9" s="2">
-        <v>-6190.1</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <v>-1000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>44967</v>
       </c>
       <c r="B10" t="s">
@@ -734,27 +782,30 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>2000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <v>4.7450000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
         <v>9490</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
         <v>3050</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
         <v>9490</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>44967</v>
       </c>
       <c r="B11" t="s">
@@ -763,27 +814,30 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>1000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <v>4.78</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
         <v>4780</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
         <v>4050</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>4780</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>44970</v>
       </c>
       <c r="B12" t="s">
@@ -792,27 +846,30 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>3000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <v>4.7295999999999996</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
         <v>14188.8</v>
       </c>
       <c r="G12">
+        <f t="shared" si="2"/>
         <v>7050</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
         <v>14188.8</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>44970</v>
       </c>
       <c r="B13" t="s">
@@ -821,27 +878,30 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>1500</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <v>4.7183000000000002</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
         <v>7077.45</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
         <v>8550</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>7077.45</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>44970</v>
       </c>
       <c r="B14" t="s">
@@ -850,27 +910,30 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>300</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="8">
         <v>4.7167000000000003</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
         <v>1415.01</v>
       </c>
       <c r="G14">
+        <f t="shared" si="2"/>
         <v>8850</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
         <v>1415.01</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>44970</v>
       </c>
       <c r="B15" t="s">
@@ -879,27 +942,30 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>2000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <v>4.71</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
         <v>9420</v>
       </c>
       <c r="G15">
+        <f t="shared" si="2"/>
         <v>10850</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
         <v>9420</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>44972</v>
       </c>
       <c r="B16" t="s">
@@ -908,27 +974,30 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>4000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="8">
         <v>4.7801</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
         <v>19120.400000000001</v>
       </c>
       <c r="G16">
+        <f t="shared" si="2"/>
         <v>14850</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
         <v>19120.400000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>44978</v>
       </c>
       <c r="B17" t="s">
@@ -937,27 +1006,30 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>-3000</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="8">
         <v>5.8550000000000004</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
         <v>-17565</v>
       </c>
       <c r="G17">
+        <f t="shared" si="2"/>
         <v>11850</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
         <v>-17565</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>-3000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>44979</v>
       </c>
       <c r="B18" t="s">
@@ -966,27 +1038,30 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>-6000</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="8">
         <v>6.6150000000000002</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
         <v>-39690</v>
       </c>
       <c r="G18">
+        <f t="shared" si="2"/>
         <v>5850</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
         <v>-39690</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>-6000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>44984</v>
       </c>
       <c r="B19" t="s">
@@ -995,545 +1070,677 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>-5850</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19">
+        <v>-3000</v>
+      </c>
+      <c r="E19" s="8">
         <v>7.8159999999999998</v>
       </c>
-      <c r="F19" s="2">
-        <v>-45723.6</v>
+      <c r="F19" s="1">
+        <v>-23448</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>-45723.6</v>
-      </c>
-      <c r="I19">
-        <v>-5850</v>
+        <v>2850</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-23448</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-3000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>-1850</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7.585</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-14032.25</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-14032.25</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-7816</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-7816</v>
+      </c>
+      <c r="I21" s="7">
+        <v>-2850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>44988</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>5000</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="8">
         <v>6.5891000000000002</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
         <v>32945.5</v>
       </c>
-      <c r="G20">
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
         <v>32945.5</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>44988</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1000</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="8">
         <v>6.4850000000000003</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
         <v>6485</v>
       </c>
-      <c r="G21">
+      <c r="G23">
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
         <v>6485</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>44988</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>-3000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="8">
         <v>6.5513000000000003</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
         <v>-19653.900000000001</v>
       </c>
-      <c r="G22">
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
         <v>-19653.900000000001</v>
       </c>
-      <c r="I22">
+      <c r="I24" s="7">
         <v>-3000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>44992</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>2900</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="8">
         <v>6.1490999999999998</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
         <v>17832.39</v>
       </c>
-      <c r="G23">
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>5900</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
         <v>17832.39</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>44992</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>100</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="8">
         <v>6.1449999999999996</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
         <v>614.5</v>
       </c>
-      <c r="G24">
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>614.5</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>44993</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>-6000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="8">
         <v>5.72</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
         <v>-34320</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
         <v>-34320</v>
       </c>
-      <c r="I25">
+      <c r="I27" s="7">
         <v>-6000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>45001</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>1000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E28" s="8">
         <v>4.2949999999999999</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
         <v>4295</v>
       </c>
-      <c r="G26">
+      <c r="G28">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
         <v>4295</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>45001</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>2000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="8">
         <v>4.3074000000000003</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
         <v>8614.8000000000011</v>
       </c>
-      <c r="G27">
+      <c r="G29">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
         <v>8614.8000000000011</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>45002</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>1000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="8">
         <v>4.29</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
         <v>4290</v>
       </c>
-      <c r="G28">
+      <c r="G30">
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
         <v>4290</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>45002</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>1000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="8">
         <v>4.2249999999999996</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
         <v>4225</v>
       </c>
-      <c r="G29">
+      <c r="G31">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
         <v>4225</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>45006</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>2000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="8">
         <v>4.42</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
         <v>8840</v>
       </c>
-      <c r="G30">
+      <c r="G32">
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
         <v>8840</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>45022</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>-2000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="8">
         <v>4.915</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
         <v>-9830</v>
       </c>
-      <c r="G31">
+      <c r="G33">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
         <v>-9830</v>
       </c>
-      <c r="I31">
+      <c r="I33" s="7">
         <v>-2000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>45036</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>-5000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="8">
         <v>4.9450000000000003</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
         <v>-24725</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
         <v>-24725</v>
       </c>
-      <c r="I32">
+      <c r="I34" s="7">
         <v>-5000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>45037</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>400</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="8">
         <v>5.01</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="G33">
+      <c r="G35">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
         <v>2004</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>45043</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>700</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E36" s="8">
         <v>5.4450000000000003</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
         <v>3811.5</v>
       </c>
-      <c r="G34">
+      <c r="G36">
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
         <v>3811.5</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>45063</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>1000</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E37" s="8">
         <v>5.0090000000000003</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
         <v>5009</v>
       </c>
-      <c r="G35">
+      <c r="G37">
+        <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
         <v>5009</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>45076</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>-1000</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E38" s="8">
         <v>4.5827999999999998</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
         <v>-4582.8</v>
       </c>
-      <c r="G36">
+      <c r="G38">
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
         <v>-4582.8</v>
       </c>
-      <c r="I36">
+      <c r="I38" s="7">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>45079</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>-1100</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E39" s="8">
         <v>4.54</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
         <v>-4994</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
         <v>-4994</v>
       </c>
-      <c r="I37">
+      <c r="I39" s="7">
         <v>-1100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7">
+        <f>SUM(D2:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="7">
+        <f>SUM(H2:H40)</f>
+        <v>-15545.7</v>
+      </c>
+      <c r="I41" s="7">
+        <f>SUM(I2:I40)</f>
+        <v>-36950</v>
       </c>
     </row>
   </sheetData>

--- a/BuySell.xlsx
+++ b/BuySell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\all_programming\R_files\Financial\Allocate_df\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8BA17-EF3A-4FE7-8875-1C9045199407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6528F6-9065-4265-8C74-30D86DCE1EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="0" windowWidth="15645" windowHeight="11355" xr2:uid="{483EC758-6210-4507-9F7A-2C3C6D0F632D}"/>
+    <workbookView xWindow="7395" yWindow="330" windowWidth="15645" windowHeight="11355" xr2:uid="{483EC758-6210-4507-9F7A-2C3C6D0F632D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
   <si>
     <t>Buy</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>tally_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Unadjusted gain/loss</t>
   </si>
 </sst>
 </file>
@@ -472,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47F31CA-8A19-439E-B0F8-713EF0E53DCC}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,14 +525,12 @@
         <v>4.07</v>
       </c>
       <c r="F2" s="1">
-        <f>E2*D2</f>
         <v>4273.5</v>
       </c>
       <c r="G2">
         <v>1050</v>
       </c>
       <c r="H2" s="1">
-        <f>D2*E2</f>
         <v>4273.5</v>
       </c>
       <c r="I2" s="7">
@@ -562,15 +554,12 @@
         <v>5.625</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F39" si="0">IF(B3="Sell",D3*E3,D3*E3)</f>
         <v>5625</v>
       </c>
       <c r="G3">
-        <f>G2+D3</f>
         <v>2050</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H39" si="1">D3*E3</f>
         <v>5625</v>
       </c>
       <c r="I3" s="7">
@@ -594,15 +583,12 @@
         <v>5.7880000000000003</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
         <v>5788</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G39" si="2">G3+D4</f>
         <v>3050</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
         <v>5788</v>
       </c>
       <c r="I4" s="7">
@@ -626,15 +612,12 @@
         <v>5.2393999999999998</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
         <v>10478.799999999999</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
         <v>10478.799999999999</v>
       </c>
       <c r="I5" s="7">
@@ -658,15 +641,12 @@
         <v>5.5124000000000004</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(B6="Sell",D6*E6,D6*E6)</f>
         <v>-5512.4000000000005</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
         <v>4050</v>
       </c>
       <c r="H6" s="1">
-        <f>D6*E6</f>
         <v>-5512.4000000000005</v>
       </c>
       <c r="I6" s="7">
@@ -687,20 +667,16 @@
         <v>-1000</v>
       </c>
       <c r="E7" s="8">
-        <f>L48</f>
-        <v>0</v>
+        <v>6.68255</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6682.55</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
         <v>3050</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6682.55</v>
       </c>
       <c r="I7" s="7">
         <v>-1000</v>
@@ -720,20 +696,16 @@
         <v>-1000</v>
       </c>
       <c r="E8" s="8">
-        <f>E50</f>
-        <v>0</v>
+        <v>6.2549999999999999</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6255</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6255</v>
       </c>
       <c r="I8" s="7">
         <v>-1000</v>
@@ -753,20 +725,16 @@
         <v>-1000</v>
       </c>
       <c r="E9" s="8">
-        <f>E52</f>
-        <v>0</v>
+        <v>6.1901000000000002</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6190.1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6190.1</v>
       </c>
       <c r="I9" s="7">
         <v>-1000</v>
@@ -789,15 +757,12 @@
         <v>4.7450000000000001</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
         <v>9490</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
         <v>3050</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
         <v>9490</v>
       </c>
       <c r="I10" s="7">
@@ -821,15 +786,12 @@
         <v>4.78</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
         <v>4780</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
         <v>4050</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
         <v>4780</v>
       </c>
       <c r="I11" s="7">
@@ -853,15 +815,12 @@
         <v>4.7295999999999996</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
         <v>14188.8</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
         <v>7050</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
         <v>14188.8</v>
       </c>
       <c r="I12" s="7">
@@ -885,15 +844,12 @@
         <v>4.7183000000000002</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
         <v>7077.45</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
         <v>8550</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
         <v>7077.45</v>
       </c>
       <c r="I13" s="7">
@@ -917,15 +873,12 @@
         <v>4.7167000000000003</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
         <v>1415.01</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
         <v>8850</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
         <v>1415.01</v>
       </c>
       <c r="I14" s="7">
@@ -949,15 +902,12 @@
         <v>4.71</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
         <v>9420</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
         <v>10850</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
         <v>9420</v>
       </c>
       <c r="I15" s="7">
@@ -981,15 +931,12 @@
         <v>4.7801</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
         <v>19120.400000000001</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
         <v>14850</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
         <v>19120.400000000001</v>
       </c>
       <c r="I16" s="7">
@@ -1013,15 +960,12 @@
         <v>5.8550000000000004</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
         <v>-17565</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
         <v>11850</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
         <v>-17565</v>
       </c>
       <c r="I17" s="7">
@@ -1045,15 +989,12 @@
         <v>6.6150000000000002</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
         <v>-39690</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
         <v>5850</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
         <v>-39690</v>
       </c>
       <c r="I18" s="7">
@@ -1115,7 +1056,7 @@
         <v>-14032.25</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>-1850</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1144,7 +1085,7 @@
         <v>-7816</v>
       </c>
       <c r="I21" s="7">
-        <v>-2850</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1164,15 +1105,12 @@
         <v>6.5891000000000002</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
         <v>32945.5</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
         <v>32945.5</v>
       </c>
       <c r="I22" s="7">
@@ -1196,15 +1134,12 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
         <v>6485</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
         <v>6485</v>
       </c>
       <c r="I23" s="7">
@@ -1228,15 +1163,12 @@
         <v>6.5513000000000003</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
         <v>-19653.900000000001</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
         <v>-19653.900000000001</v>
       </c>
       <c r="I24" s="7">
@@ -1260,15 +1192,12 @@
         <v>6.1490999999999998</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
         <v>17832.39</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
         <v>5900</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
         <v>17832.39</v>
       </c>
       <c r="I25" s="7">
@@ -1292,15 +1221,12 @@
         <v>6.1449999999999996</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
         <v>614.5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
         <v>614.5</v>
       </c>
       <c r="I26" s="7">
@@ -1318,126 +1244,114 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>-6000</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="8">
-        <v>5.72</v>
+        <v>5.8449999999999998</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>-34320</v>
+        <v>-2922.5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>-34320</v>
+        <v>-2922.5</v>
       </c>
       <c r="I27" s="7">
-        <v>-6000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45001</v>
+        <v>44993</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <v>-3000</v>
       </c>
       <c r="E28" s="8">
-        <v>4.2949999999999999</v>
+        <v>5.9450000000000003</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>4295</v>
+        <v>-17835</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>4295</v>
+        <v>-17835</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45001</v>
+        <v>44993</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
       <c r="E29" s="8">
-        <v>4.3074000000000003</v>
+        <v>5.7549999999999999</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>8614.8000000000011</v>
+        <v>-11510</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>8614.8000000000011</v>
+        <v>-11510</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45002</v>
+        <v>44993</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <v>-500</v>
       </c>
       <c r="E30" s="8">
-        <v>4.29</v>
+        <v>5.72</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>4290</v>
+        <v>-2860</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>4290</v>
+        <v>-2860</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45002</v>
+        <v>45001</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -1449,19 +1363,16 @@
         <v>1000</v>
       </c>
       <c r="E31" s="8">
-        <v>4.2249999999999996</v>
+        <v>4.2949999999999999</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>4225</v>
+        <v>4295</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>4225</v>
+        <v>4295</v>
       </c>
       <c r="I31" s="7">
         <v>0</v>
@@ -1469,7 +1380,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45006</v>
+        <v>45001</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -1481,266 +1392,310 @@
         <v>2000</v>
       </c>
       <c r="E32" s="8">
+        <v>4.3074000000000003</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8614.8000000000011</v>
+      </c>
+      <c r="G32">
+        <v>3000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8614.8000000000011</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4290</v>
+      </c>
+      <c r="G33">
+        <v>4000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4290</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4225</v>
+      </c>
+      <c r="G34">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4225</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="8">
         <v>4.42</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
+      <c r="F35" s="1">
         <v>8840</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
+      <c r="G35">
         <v>7000</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
+      <c r="H35" s="1">
         <v>8840</v>
       </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>45022</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>-2000</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E36" s="8">
         <v>4.915</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
+      <c r="F36" s="1">
         <v>-9830</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
+      <c r="G36">
         <v>5000</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
+      <c r="H36" s="1">
         <v>-9830</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I36" s="7">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>45036</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>-5000</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E37" s="8">
         <v>4.9450000000000003</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
+      <c r="F37" s="1">
         <v>-24725</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
         <v>-24725</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I37" s="7">
         <v>-5000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>45037</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>400</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E38" s="8">
         <v>5.01</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
+      <c r="F38" s="1">
         <v>2004</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
+      <c r="G38">
         <v>400</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
+      <c r="H38" s="1">
         <v>2004</v>
       </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>45043</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>700</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E39" s="8">
         <v>5.4450000000000003</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
+      <c r="F39" s="1">
         <v>3811.5</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
+      <c r="G39">
         <v>1100</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
+      <c r="H39" s="1">
         <v>3811.5</v>
       </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>45063</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
         <v>1000</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E40" s="1">
         <v>5.0090000000000003</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
+      <c r="F40" s="1">
         <v>5009</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
+      <c r="G40">
         <v>2100</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
+      <c r="H40">
         <v>5009</v>
       </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>45076</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
         <v>-1000</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E41" s="1">
         <v>4.5827999999999998</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
+      <c r="F41" s="7">
         <v>-4582.8</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
+      <c r="G41" s="7">
         <v>1100</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
+      <c r="H41" s="7">
         <v>-4582.8</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I41" s="7">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>45079</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
         <v>-1100</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E42" s="1">
         <v>4.54</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
+      <c r="F42" s="1">
         <v>-4994</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="1"/>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>-4994</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I42">
         <v>-1100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="7">
-        <f>SUM(D2:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="7">
-        <f>SUM(H2:H40)</f>
-        <v>-15545.7</v>
-      </c>
-      <c r="I41" s="7">
-        <f>SUM(I2:I40)</f>
-        <v>-36950</v>
       </c>
     </row>
   </sheetData>
